--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3342.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3342.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169375141961543</v>
+        <v>1.227022647857666</v>
       </c>
       <c r="B1">
-        <v>2.793434981922989</v>
+        <v>3.600754022598267</v>
       </c>
       <c r="C1">
-        <v>7.812789314999212</v>
+        <v>3.385593891143799</v>
       </c>
       <c r="D1">
-        <v>2.135464524707787</v>
+        <v>2.657873153686523</v>
       </c>
       <c r="E1">
-        <v>1.209531206528808</v>
+        <v>1.148515462875366</v>
       </c>
     </row>
   </sheetData>
